--- a/dados_caminhoes.xlsx
+++ b/dados_caminhoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206A1F8B-6D82-4DBB-8E7C-F0C0B40698DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598A604-711F-43E8-BF39-65920A3C8FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4647,7 +4647,7 @@
   <dimension ref="A1:F2149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
